--- a/model/results/DeepCGSR_Small_All_Beauty_5_0_factors10.xlsx
+++ b/model/results/DeepCGSR_Small_All_Beauty_5_0_factors10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,28 @@
         <v>0.3971</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.9381</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7916</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.9381</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7907999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
